--- a/DbDocumentMaker/DocTemplate/full template.xlsx
+++ b/DbDocumentMaker/DocTemplate/full template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="#TableListTemplate" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">System Name</t>
   </si>
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Table Name</t>
   </si>
   <si>
-    <t>Description</t>
+    <t xml:space="preserve">Table Description</t>
   </si>
   <si>
     <t xml:space="preserve">View Table</t>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t>#table.view</t>
-  </si>
-  <si>
-    <t>#table.MS_description</t>
-  </si>
-  <si>
-    <t>Table</t>
   </si>
   <si>
     <t>Type</t>
@@ -121,17 +115,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>escription</t>
-    </r>
+    <t xml:space="preserve">Column Description</t>
   </si>
   <si>
     <r>
@@ -216,9 +200,6 @@
       </rPr>
       <t>scription</t>
     </r>
-  </si>
-  <si>
-    <t>#column.MS_description</t>
   </si>
 </sst>
 </file>
@@ -938,9 +919,7 @@
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="E4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -979,7 +958,7 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="8" t="s">
@@ -990,10 +969,10 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" ht="31.5" customHeight="1">
@@ -1011,7 +990,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
       <c r="J2" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -1019,67 +998,65 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="F6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="H6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="I6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="K6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
